--- a/biology/Histoire de la zoologie et de la botanique/Couvent_de_la_Visitation_(Premier)/Couvent_de_la_Visitation_(Premier).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Couvent_de_la_Visitation_(Premier)/Couvent_de_la_Visitation_(Premier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ancien couvent des Visitandines (Premier) est situé dans le centre de Rouen, entre les rues Louis-Ricard et Beauvoisine.
-Le cloître fait l’objet d’un classement au titre des monuments historiques par la liste de 1862[1].
+Le cloître fait l’objet d’un classement au titre des monuments historiques par la liste de 1862.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 6 mars 1629, la ville de Rouen reconnaît l'établissement des religieuses de la Visitation de Sainte-Marie, suivant la requête faite par Jean-François de La Guiche et son épouse Susanne Aux Épaules[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 6 mars 1629, la ville de Rouen reconnaît l'établissement des religieuses de la Visitation de Sainte-Marie, suivant la requête faite par Jean-François de La Guiche et son épouse Susanne Aux Épaules.
 Les sœurs arrivent le 23 octobre 1630. Elles logent d'abord près du couvent des Minimes, avant de s'installer rue Beauvoisine. Le couvent est bâti de 1680 à 1691. L'église conventuelle commencée le 6 août 1711 par l'architecte dominicain Pierre Caumont est achevée au XVIIIe siècle.
 C'est de ce couvent qu'en 1642, sept sœurs partent pour fonder un deuxième couvent de la Visitation dans le quartier Est de Rouen.
 Pendant la Révolution, le couvent est utilisé pour interner les religieuses insermentées. C'est à ce moment que l'église est détruite.
@@ -549,7 +563,9 @@
           <t>Armes du couvent</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses armes, qui sont celles des Visitandines, sont : le champ d'or, au cœur de gueules percé de deux flèches d'or, enfermé dans une couronne d'épines de sinoples, les épines ensanglantées de gueule, une croix de sable fichée dans l'oreille du cœur.
 Le cri d'arme est : Vive+Jésus
@@ -581,7 +597,9 @@
           <t>Liste des abbesses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mère Marguerite Guérin 1632-1636
 Anne-Thérèse de Préchonnet 1638-1641
